--- a/data/partner_466/txn_29/level_3.xlsx
+++ b/data/partner_466/txn_29/level_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzhu/Downloads/Bread/Loyalty/Loyalty_Control/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzhu/Downloads/Bread/Loyalty/Loyalty_Control/data/partner_466/txn_29/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A569517D-E94B-E642-BB61-0DECE3CA13CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CCF162-1ECE-374D-BAEF-59C6EA2E2A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{FDF405BA-B44D-7145-AC30-7871220D67D0}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t>0466</t>
   </si>
   <si>
-    <t>Toyota Rewards Visa</t>
-  </si>
-  <si>
     <t>01565160</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>00147305</t>
+  </si>
+  <si>
+    <t>Auto Rewards Visa</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V4"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,44 +617,44 @@
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="4">
         <v>15000</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R2" s="3">
         <v>0</v>
@@ -683,44 +683,44 @@
         <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="4">
         <v>15000</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R3" s="3">
         <v>1</v>
@@ -749,44 +749,44 @@
         <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4">
         <v>15000</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R4" s="3">
         <v>0</v>

--- a/data/partner_466/txn_29/level_3.xlsx
+++ b/data/partner_466/txn_29/level_3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzhu/Downloads/Bread/Loyalty/Loyalty_Control/data/partner_466/txn_29/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CCF162-1ECE-374D-BAEF-59C6EA2E2A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FB315C-4480-DA47-B80E-712B8F6B76A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{FDF405BA-B44D-7145-AC30-7871220D67D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,12 +44,6 @@
     <t>clientNumber</t>
   </si>
   <si>
-    <t>Prin ID</t>
-  </si>
-  <si>
-    <t>Prin Description</t>
-  </si>
-  <si>
     <t>program_name</t>
   </si>
   <si>
@@ -116,18 +110,6 @@
     <t>29</t>
   </si>
   <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>0000</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>5511</t>
-  </si>
-  <si>
     <t>436845558641121</t>
   </si>
   <si>
@@ -138,6 +120,24 @@
   </si>
   <si>
     <t>Auto Rewards Visa</t>
+  </si>
+  <si>
+    <t>'0010'</t>
+  </si>
+  <si>
+    <t>'0000'</t>
+  </si>
+  <si>
+    <t>'253'</t>
+  </si>
+  <si>
+    <t>'5511'</t>
+  </si>
+  <si>
+    <t>Partner ID</t>
+  </si>
+  <si>
+    <t>Partner Description</t>
   </si>
 </sst>
 </file>
@@ -533,10 +533,13 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -546,64 +549,64 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -611,50 +614,50 @@
         <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G2" s="4">
         <v>15000</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R2" s="3">
         <v>0</v>
@@ -677,50 +680,50 @@
         <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G3" s="4">
         <v>15000</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R3" s="3">
         <v>1</v>
@@ -743,50 +746,50 @@
         <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="4">
         <v>15000</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="R4" s="3">
         <v>0</v>

--- a/data/partner_466/txn_29/level_3.xlsx
+++ b/data/partner_466/txn_29/level_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jzhu/Downloads/Bread/Loyalty/Loyalty_Control/data/partner_466/txn_29/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FB315C-4480-DA47-B80E-712B8F6B76A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21D2E06-3BC0-3F4D-B0EF-B73DC0386614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{FDF405BA-B44D-7145-AC30-7871220D67D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>txn_id</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>29</t>
-  </si>
-  <si>
-    <t>436845558641121</t>
   </si>
   <si>
     <t>01565159</t>
@@ -533,7 +530,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -549,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -620,7 +617,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>22</v>
@@ -632,32 +629,32 @@
         <v>15000</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
-        <v>24</v>
+      <c r="Q2" s="3">
+        <v>1121</v>
       </c>
       <c r="R2" s="3">
         <v>0</v>
@@ -686,10 +683,10 @@
         <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>23</v>
@@ -698,32 +695,32 @@
         <v>15000</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3" t="s">
-        <v>24</v>
+      <c r="Q3" s="3">
+        <v>1121</v>
       </c>
       <c r="R3" s="3">
         <v>1</v>
@@ -752,10 +749,10 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>23</v>
@@ -764,32 +761,32 @@
         <v>15000</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
-        <v>24</v>
+      <c r="Q4" s="3">
+        <v>1121</v>
       </c>
       <c r="R4" s="3">
         <v>0</v>
